--- a/gd/数值规划/战力计算.xlsx
+++ b/gd/数值规划/战力计算.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="130">
   <si>
     <t>宠物战力计算</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
     <t>当上式满足时，角色A一定可以战胜角色B，反之亦然，因而战斗力的最基础形式即为：</t>
   </si>
   <si>
-    <t>然后继续拆分咱们游戏对于HP，DPS的影响因素：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DPS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>暴击率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -268,10 +256,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>体力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>防御力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -352,10 +336,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参数定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>受治疗量加成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -372,10 +352,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大招增益</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>K1-k3表示一级，二级属性之间的转换关系（具体定义见后）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -384,9 +360,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>被动增益</t>
-  </si>
-  <si>
     <t>对局大招次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -395,26 +368,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>增益/减益技能价值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对于团队战力提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物战力计算公式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增益/减益技能价值*覆盖率*团队总战力估值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能价值计算方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>受伤比计算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -427,142 +380,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>若宠物拥有相应技能类型的技能才需要将相应技能的价值算入战力中，若没有则对应技能类型的技能价值=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k2*智力*使用治疗技能占比*治疗技能系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治疗技能价值=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治疗技能系数=治疗技能基础系数+技能升级系数*（技能等级-1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hot技能价值=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[K1*体力+（k2*智力*使用治疗技能占比*治疗技能系数）]/[受伤比*（1*(1-使用防御技能占比）+（1-防御技能减免比例（84%）*使用防御技能占比）]*（1+战后回血所占生命百分比）*（1+受治疗量加成）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（1*(1-使用防御技能占比）+（1-防御技能减免比例（84%）*使用防御技能占比）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用治疗技能占比=治疗法术权重/怪物总技能权重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用防御技能占比=防御技能权重/怪物总技能权重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御技能价值=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k2*智力*使用增益技能占比*hot技能系数*持续回合数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理技能价值=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术技能价值=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（K3*力量*使用物理技能占比*物理攻击技能系数+K2*智力*使用法术技能占比*法术攻击技能系数）*[使用增益/减益技能占比*(1+增益/减益提升价值比例)+1*（1-使用增益/减益技能占比）]*速度*（暴击率*（暴击伤害+1）+（1-暴击率）*1）*大招增益*（1+前置能量/100/对局大招次数）*被动增益</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K2*智力*使用法术技能占比*法术攻击技能系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理攻击技能系数=物理技能基础系数+技能升级系数*（技能等级-1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用物理技能占比=物理技能权重/怪物总技能权重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用法术技能占比=法术技能权重/怪物总技能权重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dot技能价值=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K3*力量*使用物理技能占比*物理攻击技能系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（k2*智力）或(K3*力量)*使用减益技能占比*dot技能系数*持续回合数/dot溢出系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用减益技能占比=减益技能权重/怪物总技能权重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术攻击技能系数=法术技能基础系数+技能升级系数*（技能等级-1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dot技能系数=dot技能基础系数+技能升级系数*（技能等级-1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dot溢出系数=dot溢出伤害比例，目前取值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御技能减免比例为宠物释放防御技能时减伤比例，目前定义为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表示大招对于怪物的加成比例，目前定义为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表示被动对于怪物的加成比例，目前定义为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>覆盖率=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增益/减益技能价值*覆盖率*团队总战力估值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（物理技能价值+法术技能价值+dot技能价值）*速度*（暴击率*（暴击伤害+1）+（1-暴击率）*1）*大招增益*（1+前置能量/100/对局大招次数（3左右））*被动增益</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（K1*体力+治疗技能价值+hot技能价值）/(受伤比*防御技能价值)*（1+受治疗量加成*0.33）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对于团队战力提升=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战力=（HP*DPS+对于团队战力提升）*K（lv）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>K(lv)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -571,43 +388,145 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用增益技能占比=增益技能权重/怪物总技能权重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增益技能权重（或者减益技能权重）/怪物总技能权重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备评分计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算出添加该装备后宠物的总战力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备战力=添加该装备后宠物的总战力-该等级宠物的战力（未添加装备的）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备评分=装备战力/k(lv)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整装备战力数量级（3位以内），需要根据装备基础属性的成长的量级调整k具体的取值，与装备品质和强化等级相关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>团队总战力=T,D,S对应等级对应品阶的宠物添加预期穿戴装备的战力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过装备的限值等级计算出该等级对应品质宠物的战力（未添加装备的）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>由于宠物基础属性和装备基础属性为线性增长，只要规定出该等级预期的宠物品质与装备即可计算出团队战斗力（技能，AI均使用标准模型）</t>
+    <t>其中属性带来的战力提升为宠物自身属性带来的战力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能带来的战力提升为宠物技能系数，技能等级，AI带来的战力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将战力拆分为属性带来的战力提升与技能带来的战力提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性带来的战力提升HP，DPS的影响因素：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP*DPS/K（lv）</t>
+  </si>
+  <si>
+    <t>技能带来的战力提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对每一个AI，每提升一个技能为固定的战力提升，具体每个技能战力提升为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前属性带来的战力提升与技能带来战力提升的比例为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再通过技能层战力分配出大招战力与被动战力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以通过100级的标准属性提升战力推出技能提升总战力（相当于以100级技能战力提升作为标准）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通技能提升战力*大招系数*被动系数=技能提升总战力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动系数</t>
+  </si>
+  <si>
+    <t>目前公式中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能提升总战力/（大招系数*被动系数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（技能提升总战力-普通技能提升战力）*（大招系数-1）/(大招系数+被动系数-2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（技能提升总战力-普通技能提升战力）*（被动系数-1）/(大招系数+被动系数-2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通技能升级提升比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性带来的战力提升=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总战力=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（K1*体力）/受伤比*（1+受治疗量加成*0.33）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（k2*智力+K3*力量）/2*速度*（暴击率*（暴击伤害+1）+（1-暴击率）*1）*（1+前置能量/100/对局大招次数（3左右））</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动所占技能战力=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招升级提升比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招所占技能战力=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招每级提升战力=大招所占技能战力*大招升级提升比例/99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招基础提升战力=大招所占技能战力*（1-大招升级提升比例）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要通过不同的AI修正不同的提升比例，即不同种类的AI对应的提升比例不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通技能提升战力=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通技能每级提升战力=普通技能提升战力*普通技能升级提升比例/(99*（宠物拥有技能权重总值-防御权重-buff权重（若拥有技能为dot则不用减去）））</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通技能基础提升战力=普通技能提升战力*（1-普通技能升级提升比例）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题：dot技能是否放入法术技能而不算是buff技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同技能每级提升战力=普通技能每级提升战力*宠物该技能权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性带来的战力提升+被动所占技能战力+大招基础提升战力+大招每级提升战力*大招等级+普通技能基础提升战力+物理技能每级提升战力*物理技能等级+法术技能每级提升战力*法术技能等级+dot技能每级提升战力*dot技能等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -615,8 +534,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -698,7 +618,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -732,11 +652,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1255,16 +1178,6 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="3">
-          <cell r="D3">
-            <v>0.8</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="J48">
-            <v>0.84</v>
-          </cell>
-        </row>
         <row r="57">
           <cell r="N57">
             <v>1.2</v>
@@ -1273,19 +1186,23 @@
             <v>1.1000000000000001</v>
           </cell>
         </row>
+        <row r="59">
+          <cell r="T59">
+            <v>2.6287823312953829</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="C88">
+            <v>1.5064008734601597</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
-        <row r="112">
-          <cell r="D112">
-            <v>1.6230158730158732</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1554,10 +1471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q157"/>
+  <dimension ref="B2:S133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="G147" sqref="G147"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1593,1090 +1510,1339 @@
     <row r="32" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D33" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D35" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D36" s="5"/>
     </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D39" s="1" t="s">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D38" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E39" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E40" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C42" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D43" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E40" s="1" t="s">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E44" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E45" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F41" s="1" t="s">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E46" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D48" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E49" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E50" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E51" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E52" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E53" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E54" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D55" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D56" s="6"/>
+      <c r="E56" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D57" s="6"/>
+      <c r="E57" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D59" s="6"/>
+      <c r="E59" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D61" s="6"/>
+      <c r="E61" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D62" s="6"/>
+      <c r="F62" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+    </row>
+    <row r="64" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D64" s="6"/>
+      <c r="E64" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D65" s="6"/>
+      <c r="F65" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D66" s="6"/>
+    </row>
+    <row r="67" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D67" s="6"/>
+      <c r="E67" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D68" s="6"/>
+      <c r="F68" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+    </row>
+    <row r="70" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+    </row>
+    <row r="71" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D71" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="F72" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K72" s="17"/>
+      <c r="L72" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="M72" s="17"/>
+      <c r="N72" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="O72" s="14"/>
+      <c r="P72" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q72" s="14"/>
+    </row>
+    <row r="73" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="E73" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G73" s="15"/>
+      <c r="H73" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I73" s="18"/>
+      <c r="J73" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K73" s="15"/>
+      <c r="L73" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c r="P73" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q73" s="8"/>
+    </row>
+    <row r="74" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="E74" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="F75" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="F77" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K77" s="17"/>
+      <c r="L77" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="M77" s="17"/>
+      <c r="N77" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="O77" s="14"/>
+      <c r="P77" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q77" s="14"/>
+    </row>
+    <row r="78" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="E78" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G78" s="15"/>
+      <c r="H78" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I78" s="18"/>
+      <c r="J78" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K78" s="15"/>
+      <c r="L78" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q78" s="8"/>
+    </row>
+    <row r="79" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="E79" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="F80" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+    </row>
+    <row r="82" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="F82" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K82" s="17"/>
+      <c r="L82" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="M82" s="17"/>
+      <c r="N82" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="O82" s="14"/>
+      <c r="P82" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q82" s="14"/>
+    </row>
+    <row r="83" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E83" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F83" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G83" s="15"/>
+      <c r="H83" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I83" s="18"/>
+      <c r="J83" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="K83" s="15"/>
+      <c r="L83" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M83" s="8"/>
+      <c r="N83" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c r="P83" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q83" s="8"/>
+    </row>
+    <row r="84" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E84" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="F85" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+    </row>
+    <row r="87" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="F87" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I87" s="17"/>
+      <c r="J87" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K87" s="17"/>
+      <c r="L87" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="M87" s="17"/>
+      <c r="N87" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="O87" s="14"/>
+      <c r="P87" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q87" s="14"/>
+    </row>
+    <row r="88" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E88" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F88" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G88" s="15"/>
+      <c r="H88" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I88" s="18"/>
+      <c r="J88" s="15" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F42" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F43" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F44" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E46" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F47" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F48" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="F49" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="F50" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="F51" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="F52" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J52" s="1" t="s">
+      <c r="K88" s="15"/>
+      <c r="L88" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M88" s="8"/>
+      <c r="N88" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c r="P88" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q88" s="8"/>
+    </row>
+    <row r="89" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E89" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="9"/>
+      <c r="O89" s="9"/>
+      <c r="P89" s="9"/>
+      <c r="Q89" s="9"/>
+    </row>
+    <row r="90" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="F90" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G90" s="9"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
+      <c r="O90" s="9"/>
+      <c r="P90" s="9"/>
+      <c r="Q90" s="9"/>
+    </row>
+    <row r="91" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="F91" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G91" s="9"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
+      <c r="O91" s="9"/>
+      <c r="P91" s="9"/>
+      <c r="Q91" s="9"/>
+    </row>
+    <row r="92" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="9"/>
+      <c r="O92" s="9"/>
+      <c r="P92" s="9"/>
+      <c r="Q92" s="9"/>
+    </row>
+    <row r="93" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="F93" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I93" s="17"/>
+      <c r="J93" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K93" s="17"/>
+      <c r="L93" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="M93" s="17"/>
+      <c r="N93" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="O93" s="14"/>
+      <c r="P93" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q93" s="14"/>
+    </row>
+    <row r="94" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E94" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F94" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G94" s="15"/>
+      <c r="H94" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="I94" s="18"/>
+      <c r="J94" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="K94" s="15"/>
+      <c r="L94" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="M94" s="8"/>
+      <c r="N94" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c r="P94" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q94" s="8"/>
+    </row>
+    <row r="95" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9"/>
+      <c r="N95" s="9"/>
+      <c r="O95" s="9"/>
+      <c r="P95" s="9"/>
+      <c r="Q95" s="9"/>
+    </row>
+    <row r="96" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="F96" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I96" s="17"/>
+      <c r="J96" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K96" s="17"/>
+      <c r="L96" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="M96" s="17"/>
+      <c r="N96" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="O96" s="14"/>
+      <c r="P96" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q96" s="14"/>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="E97" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F97" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G97" s="15"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="16"/>
+      <c r="J97" s="16"/>
+      <c r="K97" s="16"/>
+      <c r="L97" s="16"/>
+      <c r="M97" s="16"/>
+      <c r="N97" s="16"/>
+      <c r="O97" s="16"/>
+      <c r="P97" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q97" s="8"/>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="F99" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G99" s="17"/>
+      <c r="H99" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I99" s="17"/>
+      <c r="J99" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K99" s="17"/>
+      <c r="L99" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="M99" s="17"/>
+      <c r="N99" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="O99" s="14"/>
+      <c r="P99" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q99" s="14"/>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="E100" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F100" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G100" s="15"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="16"/>
+      <c r="J100" s="16"/>
+      <c r="K100" s="16"/>
+      <c r="L100" s="16"/>
+      <c r="M100" s="16"/>
+      <c r="N100" s="16"/>
+      <c r="O100" s="16"/>
+      <c r="P100" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q100" s="8"/>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="F102" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G102" s="17"/>
+      <c r="H102" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I102" s="17"/>
+      <c r="J102" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K102" s="17"/>
+      <c r="L102" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="M102" s="17"/>
+      <c r="N102" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="O102" s="14"/>
+      <c r="P102" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q102" s="14"/>
+    </row>
+    <row r="103" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="E103" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F103" s="15"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="16"/>
+      <c r="I103" s="16"/>
+      <c r="J103" s="16"/>
+      <c r="K103" s="16"/>
+      <c r="L103" s="16"/>
+      <c r="M103" s="16"/>
+      <c r="N103" s="16"/>
+      <c r="O103" s="16"/>
+      <c r="P103" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q103" s="8"/>
+    </row>
+    <row r="104" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="E104" s="6"/>
+    </row>
+    <row r="105" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="F105" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G105" s="17"/>
+      <c r="H105" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I105" s="17"/>
+      <c r="J105" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K105" s="17"/>
+      <c r="L105" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="M105" s="17"/>
+      <c r="N105" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="O105" s="14"/>
+      <c r="P105" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q105" s="14"/>
+    </row>
+    <row r="106" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="E106" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F106" s="15"/>
+      <c r="G106" s="15"/>
+      <c r="H106" s="16"/>
+      <c r="I106" s="16"/>
+      <c r="J106" s="16"/>
+      <c r="K106" s="16"/>
+      <c r="L106" s="16"/>
+      <c r="M106" s="16"/>
+      <c r="N106" s="16"/>
+      <c r="O106" s="16"/>
+      <c r="P106" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q106" s="8"/>
+    </row>
+    <row r="107" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="E107" s="6"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11"/>
+      <c r="J107" s="11"/>
+      <c r="K107" s="11"/>
+      <c r="L107" s="11"/>
+      <c r="M107" s="11"/>
+      <c r="N107" s="11"/>
+      <c r="O107" s="11"/>
+      <c r="P107" s="9"/>
+      <c r="Q107" s="9"/>
+    </row>
+    <row r="108" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C108" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E108" s="6"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="11"/>
+      <c r="J108" s="11"/>
+      <c r="K108" s="11"/>
+      <c r="L108" s="11"/>
+      <c r="M108" s="11"/>
+      <c r="N108" s="11"/>
+      <c r="O108" s="11"/>
+      <c r="P108" s="9"/>
+      <c r="Q108" s="9"/>
+    </row>
+    <row r="109" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="D109" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="11"/>
+      <c r="J109" s="11"/>
+      <c r="K109" s="11"/>
+      <c r="L109" s="11"/>
+      <c r="M109" s="11"/>
+      <c r="N109" s="11"/>
+      <c r="O109" s="11"/>
+      <c r="P109" s="9"/>
+      <c r="Q109" s="9"/>
+    </row>
+    <row r="110" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="E110" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="11"/>
+      <c r="J110" s="13">
+        <f>[1]职业定位属性配比!$C$88</f>
+        <v>1.5064008734601597</v>
+      </c>
+      <c r="K110" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="L110" s="13">
+        <f>[1]职业定位属性配比!$T$59</f>
+        <v>2.6287823312953829</v>
+      </c>
+      <c r="M110" s="11"/>
+      <c r="N110" s="11"/>
+      <c r="O110" s="11"/>
+      <c r="P110" s="9"/>
+      <c r="Q110" s="9"/>
+    </row>
+    <row r="111" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="E111" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="11"/>
+      <c r="J111" s="11"/>
+      <c r="K111" s="11"/>
+      <c r="L111" s="11"/>
+      <c r="M111" s="11"/>
+      <c r="N111" s="11"/>
+      <c r="O111" s="11"/>
+      <c r="P111" s="9"/>
+      <c r="Q111" s="9"/>
+    </row>
+    <row r="112" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="E112" s="6"/>
+      <c r="F112" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G112" s="9"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="11"/>
+      <c r="J112" s="11"/>
+      <c r="K112" s="11"/>
+      <c r="L112" s="11"/>
+      <c r="M112" s="11"/>
+      <c r="N112" s="11"/>
+      <c r="O112" s="11"/>
+      <c r="P112" s="9"/>
+      <c r="Q112" s="9"/>
+    </row>
+    <row r="113" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="E113" s="6"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H113" s="11"/>
+      <c r="I113" s="11"/>
+      <c r="J113" s="11"/>
+      <c r="K113" s="11"/>
+      <c r="L113" s="11"/>
+      <c r="M113" s="11"/>
+      <c r="N113" s="11"/>
+      <c r="O113" s="11"/>
+      <c r="P113" s="9"/>
+      <c r="Q113" s="9"/>
+    </row>
+    <row r="114" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="E114" s="6"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H114" s="11"/>
+      <c r="I114" s="11" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="F53" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="54" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="F54" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C56" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D57" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="58" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D58" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="59" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D59" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="61" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D61" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="62" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="E62" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="64" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D64" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="65" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="E65" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="F66" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="E68" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="69" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="F69" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J69" s="1">
+      <c r="J114" s="12">
         <f>[1]职业定位属性配比!$N$57</f>
         <v>1.2</v>
       </c>
-    </row>
-    <row r="71" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="E71" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="72" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="F72" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="J72" s="1">
+      <c r="K114" s="11"/>
+      <c r="L114" s="11"/>
+      <c r="M114" s="11"/>
+      <c r="N114" s="11"/>
+      <c r="O114" s="11"/>
+      <c r="P114" s="9"/>
+      <c r="Q114" s="9"/>
+    </row>
+    <row r="115" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="E115" s="6"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="11"/>
+      <c r="I115" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J115" s="12">
         <f>[1]职业定位属性配比!$Q$57</f>
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="74" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="E74" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="75" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="F75" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="77" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="E77" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="78" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="F78" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="79" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D79" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="80" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="F80" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G80" s="16"/>
-      <c r="H80" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="I80" s="16"/>
-      <c r="J80" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K80" s="16"/>
-      <c r="L80" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="M80" s="16"/>
-      <c r="N80" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="O80" s="13"/>
-      <c r="P80" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q80" s="13"/>
-    </row>
-    <row r="81" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="E81" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F81" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G81" s="14"/>
-      <c r="H81" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="I81" s="17"/>
-      <c r="J81" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="K81" s="14"/>
-      <c r="L81" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M81" s="8"/>
-      <c r="N81" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="O81" s="8"/>
-      <c r="P81" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q81" s="8"/>
-    </row>
-    <row r="82" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="E82" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="83" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="F83" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-    </row>
-    <row r="84" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-    </row>
-    <row r="85" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="F85" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G85" s="16"/>
-      <c r="H85" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="I85" s="16"/>
-      <c r="J85" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K85" s="16"/>
-      <c r="L85" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="M85" s="16"/>
-      <c r="N85" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="O85" s="13"/>
-      <c r="P85" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="E86" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F86" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G86" s="14"/>
-      <c r="H86" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I86" s="17"/>
-      <c r="J86" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="K86" s="14"/>
-      <c r="L86" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M86" s="8"/>
-      <c r="N86" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="O86" s="8"/>
-      <c r="P86" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q86" s="8"/>
-    </row>
-    <row r="87" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="E87" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="88" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="F88" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-    </row>
-    <row r="90" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="F90" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G90" s="16"/>
-      <c r="H90" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="I90" s="16"/>
-      <c r="J90" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K90" s="16"/>
-      <c r="L90" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="M90" s="16"/>
-      <c r="N90" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="O90" s="13"/>
-      <c r="P90" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="E91" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F91" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G91" s="14"/>
-      <c r="H91" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="I91" s="17"/>
-      <c r="J91" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="K91" s="14"/>
-      <c r="L91" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="M91" s="8"/>
-      <c r="N91" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="O91" s="8"/>
-      <c r="P91" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q91" s="8"/>
-    </row>
-    <row r="92" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="E92" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="93" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="F93" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-    </row>
-    <row r="95" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="F95" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G95" s="16"/>
-      <c r="H95" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="I95" s="16"/>
-      <c r="J95" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K95" s="16"/>
-      <c r="L95" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="M95" s="16"/>
-      <c r="N95" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="O95" s="13"/>
-      <c r="P95" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="E96" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F96" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G96" s="14"/>
-      <c r="H96" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="I96" s="17"/>
-      <c r="J96" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="K96" s="14"/>
-      <c r="L96" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="M96" s="8"/>
-      <c r="N96" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="O96" s="8"/>
-      <c r="P96" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q96" s="8"/>
-    </row>
-    <row r="97" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="E97" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="10"/>
-      <c r="I97" s="10"/>
-      <c r="J97" s="9"/>
-      <c r="K97" s="9"/>
-      <c r="L97" s="9"/>
-      <c r="M97" s="9"/>
-      <c r="N97" s="9"/>
-      <c r="O97" s="9"/>
-      <c r="P97" s="9"/>
-      <c r="Q97" s="9"/>
-    </row>
-    <row r="98" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="F98" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="G98" s="9"/>
-      <c r="H98" s="10"/>
-      <c r="I98" s="10"/>
-      <c r="J98" s="9"/>
-      <c r="K98" s="9"/>
-      <c r="L98" s="9"/>
-      <c r="M98" s="9"/>
-      <c r="N98" s="9"/>
-      <c r="O98" s="9"/>
-      <c r="P98" s="9"/>
-      <c r="Q98" s="9"/>
-    </row>
-    <row r="99" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="F99" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="G99" s="9"/>
-      <c r="H99" s="10"/>
-      <c r="I99" s="10"/>
-      <c r="J99" s="9"/>
-      <c r="K99" s="9"/>
-      <c r="L99" s="9"/>
-      <c r="M99" s="9"/>
-      <c r="N99" s="9"/>
-      <c r="O99" s="9"/>
-      <c r="P99" s="9"/>
-      <c r="Q99" s="9"/>
-    </row>
-    <row r="100" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="F100" s="9"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="10"/>
-      <c r="I100" s="10"/>
-      <c r="J100" s="9"/>
-      <c r="K100" s="9"/>
-      <c r="L100" s="9"/>
-      <c r="M100" s="9"/>
-      <c r="N100" s="9"/>
-      <c r="O100" s="9"/>
-      <c r="P100" s="9"/>
-      <c r="Q100" s="9"/>
-    </row>
-    <row r="101" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="F101" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G101" s="16"/>
-      <c r="H101" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="I101" s="16"/>
-      <c r="J101" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K101" s="16"/>
-      <c r="L101" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="M101" s="16"/>
-      <c r="N101" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="O101" s="13"/>
-      <c r="P101" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="E102" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F102" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G102" s="14"/>
-      <c r="H102" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="I102" s="17"/>
-      <c r="J102" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="K102" s="14"/>
-      <c r="L102" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="M102" s="8"/>
-      <c r="N102" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="O102" s="8"/>
-      <c r="P102" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q102" s="8"/>
-    </row>
-    <row r="103" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="10"/>
-      <c r="I103" s="10"/>
-      <c r="J103" s="9"/>
-      <c r="K103" s="9"/>
-      <c r="L103" s="9"/>
-      <c r="M103" s="9"/>
-      <c r="N103" s="9"/>
-      <c r="O103" s="9"/>
-      <c r="P103" s="9"/>
-      <c r="Q103" s="9"/>
-    </row>
-    <row r="104" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="F104" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G104" s="16"/>
-      <c r="H104" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="I104" s="16"/>
-      <c r="J104" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K104" s="16"/>
-      <c r="L104" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="M104" s="16"/>
-      <c r="N104" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="O104" s="13"/>
-      <c r="P104" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q104" s="13"/>
-    </row>
-    <row r="105" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="E105" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F105" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="G105" s="14"/>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="15"/>
-      <c r="K105" s="15"/>
-      <c r="L105" s="15"/>
-      <c r="M105" s="15"/>
-      <c r="N105" s="15"/>
-      <c r="O105" s="15"/>
-      <c r="P105" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q105" s="8"/>
-    </row>
-    <row r="107" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="F107" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G107" s="16"/>
-      <c r="H107" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="I107" s="16"/>
-      <c r="J107" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K107" s="16"/>
-      <c r="L107" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="M107" s="16"/>
-      <c r="N107" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q107" s="13"/>
-    </row>
-    <row r="108" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="E108" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F108" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="G108" s="14"/>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="15"/>
-      <c r="K108" s="15"/>
-      <c r="L108" s="15"/>
-      <c r="M108" s="15"/>
-      <c r="N108" s="15"/>
-      <c r="O108" s="15"/>
-      <c r="P108" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q108" s="8"/>
-    </row>
-    <row r="110" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="F110" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G110" s="16"/>
-      <c r="H110" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="I110" s="16"/>
-      <c r="J110" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K110" s="16"/>
-      <c r="L110" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="M110" s="16"/>
-      <c r="N110" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="O110" s="13"/>
-      <c r="P110" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q110" s="13"/>
-    </row>
-    <row r="111" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="E111" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F111" s="14"/>
-      <c r="G111" s="14"/>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="15"/>
-      <c r="K111" s="15"/>
-      <c r="L111" s="15"/>
-      <c r="M111" s="15"/>
-      <c r="N111" s="15"/>
-      <c r="O111" s="15"/>
-      <c r="P111" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q111" s="8"/>
-    </row>
-    <row r="112" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="E112" s="6"/>
-    </row>
-    <row r="113" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="F113" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G113" s="16"/>
-      <c r="H113" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="I113" s="16"/>
-      <c r="J113" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K113" s="16"/>
-      <c r="L113" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="M113" s="16"/>
-      <c r="N113" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="O113" s="13"/>
-      <c r="P113" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="E114" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F114" s="14"/>
-      <c r="G114" s="14"/>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="15"/>
-      <c r="K114" s="15"/>
-      <c r="L114" s="15"/>
-      <c r="M114" s="15"/>
-      <c r="N114" s="15"/>
-      <c r="O114" s="15"/>
-      <c r="P114" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q114" s="8"/>
-    </row>
-    <row r="116" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D116" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="117" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="E117" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="119" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="E119" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="120" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="F120" s="1" t="s">
+      <c r="K115" s="11"/>
+      <c r="L115" s="11"/>
+      <c r="M115" s="11"/>
+      <c r="N115" s="11"/>
+      <c r="O115" s="11"/>
+      <c r="P115" s="9"/>
+      <c r="Q115" s="9"/>
+    </row>
+    <row r="116" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="E116" s="6"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H116" s="11"/>
+      <c r="I116" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J116" s="11"/>
+      <c r="K116" s="11"/>
+      <c r="L116" s="11"/>
+      <c r="M116" s="11"/>
+      <c r="N116" s="11"/>
+      <c r="O116" s="11"/>
+      <c r="P116" s="9"/>
+      <c r="Q116" s="9"/>
+    </row>
+    <row r="117" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="E117" s="6"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H117" s="11"/>
+      <c r="I117" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K117" s="11"/>
+      <c r="L117" s="11"/>
+      <c r="M117" s="11"/>
+      <c r="N117" s="11"/>
+      <c r="O117" s="11"/>
+      <c r="P117" s="9"/>
+      <c r="Q117" s="9"/>
+    </row>
+    <row r="118" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="E118" s="6"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H118" s="11"/>
+      <c r="I118" s="11" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="121" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="F121" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="123" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="E123" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="124" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="F124" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="126" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="E126" s="6" t="s">
+      <c r="J118" s="11"/>
+      <c r="K118" s="11"/>
+      <c r="L118" s="11"/>
+      <c r="M118" s="11"/>
+      <c r="N118" s="11"/>
+      <c r="O118" s="11"/>
+      <c r="P118" s="9"/>
+      <c r="Q118" s="9"/>
+    </row>
+    <row r="119" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="E119" s="6"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H119" s="11"/>
+      <c r="I119" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J119" s="11"/>
+      <c r="K119" s="11"/>
+      <c r="L119" s="11"/>
+      <c r="M119" s="11"/>
+      <c r="N119" s="11"/>
+      <c r="O119" s="11"/>
+      <c r="P119" s="9"/>
+      <c r="Q119" s="9"/>
+    </row>
+    <row r="120" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="E120" s="6"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="I120" s="11"/>
+      <c r="J120" s="11"/>
+      <c r="K120" s="11"/>
+      <c r="L120" s="11"/>
+      <c r="M120" s="11"/>
+      <c r="N120" s="11"/>
+      <c r="O120" s="11"/>
+      <c r="P120" s="9"/>
+      <c r="Q120" s="9"/>
+    </row>
+    <row r="121" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="E121" s="6"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="I121" s="11"/>
+      <c r="J121" s="11"/>
+      <c r="K121" s="11"/>
+      <c r="L121" s="11"/>
+      <c r="M121" s="11"/>
+      <c r="N121" s="11"/>
+      <c r="O121" s="11"/>
+      <c r="P121" s="9"/>
+      <c r="Q121" s="9"/>
+    </row>
+    <row r="122" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="E122" s="6"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F126" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="127" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="F127" s="1" t="s">
+      <c r="H122" s="11"/>
+      <c r="I122" s="11" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="128" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="F128" s="1" t="s">
+      <c r="J122" s="11"/>
+      <c r="K122" s="11"/>
+      <c r="L122" s="11"/>
+      <c r="M122" s="11"/>
+      <c r="N122" s="11"/>
+      <c r="O122" s="11"/>
+      <c r="P122" s="9"/>
+      <c r="Q122" s="9"/>
+    </row>
+    <row r="123" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="E123" s="6"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="11"/>
+      <c r="I123" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J123" s="11"/>
+      <c r="K123" s="11"/>
+      <c r="L123" s="11"/>
+      <c r="M123" s="11"/>
+      <c r="N123" s="11"/>
+      <c r="O123" s="11"/>
+      <c r="P123" s="9"/>
+      <c r="Q123" s="9"/>
+      <c r="S123" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="124" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="E124" s="6"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="I124" s="11"/>
+      <c r="J124" s="11"/>
+      <c r="K124" s="11"/>
+      <c r="L124" s="11"/>
+      <c r="M124" s="11"/>
+      <c r="N124" s="11"/>
+      <c r="O124" s="11"/>
+      <c r="P124" s="9"/>
+      <c r="Q124" s="9"/>
+    </row>
+    <row r="125" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="E125" s="6"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="I125" s="11"/>
+      <c r="J125" s="11"/>
+      <c r="K125" s="11"/>
+      <c r="L125" s="11"/>
+      <c r="M125" s="11"/>
+      <c r="N125" s="11"/>
+      <c r="O125" s="11"/>
+      <c r="P125" s="9"/>
+      <c r="Q125" s="9"/>
+    </row>
+    <row r="126" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="E126" s="6"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="I126" s="11"/>
+      <c r="J126" s="11"/>
+      <c r="K126" s="11"/>
+      <c r="L126" s="11"/>
+      <c r="M126" s="11"/>
+      <c r="N126" s="11"/>
+      <c r="O126" s="11"/>
+      <c r="P126" s="9"/>
+      <c r="Q126" s="9"/>
+    </row>
+    <row r="127" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="E127" s="6"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="11"/>
+      <c r="I127" s="11"/>
+      <c r="J127" s="11"/>
+      <c r="K127" s="11"/>
+      <c r="L127" s="11"/>
+      <c r="M127" s="11"/>
+      <c r="N127" s="11"/>
+      <c r="O127" s="11"/>
+      <c r="P127" s="9"/>
+      <c r="Q127" s="9"/>
+    </row>
+    <row r="128" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="C128" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E128" s="6"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="I128" s="11"/>
+      <c r="J128" s="11"/>
+      <c r="K128" s="11"/>
+      <c r="L128" s="11"/>
+      <c r="M128" s="11"/>
+      <c r="N128" s="11"/>
+      <c r="O128" s="11"/>
+      <c r="P128" s="9"/>
+      <c r="Q128" s="9"/>
+    </row>
+    <row r="129" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D129" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="L128" s="11">
-        <f>[1]职业定位属性配比!$J$48</f>
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="130" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E130" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="131" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="F131" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="132" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="F132" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="134" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E134" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="135" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="F135" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="136" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="F136" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="138" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E138" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="139" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="F139" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="140" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="F140" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="141" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="F141" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K141" s="1">
-        <f>[1]技能基础价值!$D$112</f>
-        <v>1.6230158730158732</v>
-      </c>
-    </row>
-    <row r="143" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E143" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="144" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E144" s="6"/>
-      <c r="F144" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H144" s="12">
-        <f>[1]职业定位属性配比!$D$3</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E145" s="6"/>
-      <c r="F145" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F146" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="G147" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D148" s="6"/>
-    </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E149" s="6"/>
-    </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B150" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C151" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D152" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D153" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D154" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D155" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E156" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F157" s="1" t="s">
-        <v>146</v>
-      </c>
+      <c r="E129" s="6"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="9"/>
+      <c r="I129" s="11"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="11"/>
+      <c r="L129" s="11"/>
+      <c r="M129" s="11"/>
+      <c r="N129" s="11"/>
+      <c r="O129" s="11"/>
+      <c r="P129" s="9"/>
+      <c r="Q129" s="9"/>
+    </row>
+    <row r="130" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="E130" s="6"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="11"/>
+      <c r="I130" s="11"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="11"/>
+      <c r="L130" s="11"/>
+      <c r="M130" s="11"/>
+      <c r="N130" s="11"/>
+      <c r="O130" s="11"/>
+      <c r="P130" s="9"/>
+      <c r="Q130" s="9"/>
+    </row>
+    <row r="131" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="E131" s="6"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="11"/>
+      <c r="I131" s="11"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="11"/>
+      <c r="L131" s="11"/>
+      <c r="M131" s="11"/>
+      <c r="N131" s="11"/>
+      <c r="O131" s="11"/>
+      <c r="P131" s="9"/>
+      <c r="Q131" s="9"/>
+    </row>
+    <row r="132" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="E132" s="6"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="11"/>
+      <c r="I132" s="11"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="11"/>
+      <c r="L132" s="11"/>
+      <c r="M132" s="11"/>
+      <c r="N132" s="11"/>
+      <c r="O132" s="11"/>
+      <c r="P132" s="9"/>
+      <c r="Q132" s="9"/>
+    </row>
+    <row r="133" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="E133" s="6"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="11"/>
+      <c r="I133" s="11"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="11"/>
+      <c r="L133" s="11"/>
+      <c r="M133" s="11"/>
+      <c r="N133" s="11"/>
+      <c r="O133" s="11"/>
+      <c r="P133" s="9"/>
+      <c r="Q133" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="L85:M85"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="L90:M90"/>
-    <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="L95:M95"/>
-    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="J88:K88"/>
     <mergeCell ref="F96:G96"/>
     <mergeCell ref="H96:I96"/>
     <mergeCell ref="J96:K96"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="J104:K104"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="J99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="P99:Q99"/>
     <mergeCell ref="F102:G102"/>
     <mergeCell ref="H102:I102"/>
     <mergeCell ref="J102:K102"/>
-    <mergeCell ref="L104:M104"/>
-    <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="J103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
     <mergeCell ref="F105:G105"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="J101:K101"/>
-    <mergeCell ref="L101:M101"/>
-    <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="F108:G108"/>
     <mergeCell ref="H105:I105"/>
     <mergeCell ref="J105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="J108:K108"/>
-    <mergeCell ref="L108:M108"/>
-    <mergeCell ref="N108:O108"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="J107:K107"/>
-    <mergeCell ref="L107:M107"/>
-    <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="L110:M110"/>
-    <mergeCell ref="N110:O110"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="L111:M111"/>
-    <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="L114:M114"/>
-    <mergeCell ref="N114:O114"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="L113:M113"/>
-    <mergeCell ref="N113:O113"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2697,7 +2863,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2705,7 +2871,7 @@
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2713,7 +2879,7 @@
     </row>
     <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2763,7 +2929,7 @@
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2771,7 +2937,7 @@
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2791,7 +2957,7 @@
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2841,7 +3007,7 @@
     </row>
     <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2873,7 +3039,7 @@
     </row>
     <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2881,7 +3047,7 @@
     </row>
     <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2889,7 +3055,7 @@
     </row>
     <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>

--- a/gd/数值规划/战力计算.xlsx
+++ b/gd/数值规划/战力计算.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="135">
   <si>
     <t>宠物战力计算</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,14 +188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>k1：每点体力对生命值带来的加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k2：每点智力对魔法攻击力带来的加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>力量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -252,10 +244,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>k3：每点力量对物理攻击力带来的加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>防御力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -352,14 +340,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>K1-k3表示一级，二级属性之间的转换关系（具体定义见后）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K1，k2，k3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对局大招次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -527,6 +507,46 @@
   </si>
   <si>
     <t>属性带来的战力提升+被动所占技能战力+大招基础提升战力+大招每级提升战力*大招等级+普通技能基础提升战力+物理技能每级提升战力*物理技能等级+法术技能每级提升战力*法术技能等级+dot技能每级提升战力*dot技能等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n1：每点体力对生命值带来的加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n1，n2，n3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n1~n3表示一级，二级属性之间的转换关系（具体定义见后）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数1(k1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n2：每点智力对魔法攻击力带来的加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n3：每点力量对物理攻击力带来的加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体计算方法见怪物属性配置及伤害公式 属性说明分页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进对局后属性不计算在内，只计算进对局前属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -661,20 +681,20 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1471,10 +1491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S133"/>
+  <dimension ref="B2:S138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="F115" sqref="F115"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1528,22 +1548,22 @@
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D38" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E39" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E40" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C42" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.15">
@@ -1609,10 +1629,10 @@
     <row r="56" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D56" s="6"/>
       <c r="E56" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="4:7" x14ac:dyDescent="0.15">
@@ -1621,7 +1641,7 @@
         <v>26</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="4:7" x14ac:dyDescent="0.15">
@@ -1630,10 +1650,10 @@
     <row r="59" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D59" s="6"/>
       <c r="E59" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="4:7" x14ac:dyDescent="0.15">
@@ -1642,50 +1662,53 @@
     </row>
     <row r="61" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D61" s="6"/>
-      <c r="E61" s="1" t="s">
-        <v>86</v>
+      <c r="E61" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D62" s="6"/>
       <c r="F62" s="1" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
+      <c r="G63" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="64" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D64" s="6"/>
-      <c r="E64" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="F64" s="6"/>
     </row>
     <row r="65" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D65" s="6"/>
       <c r="F65" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D66" s="6"/>
+      <c r="G66" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="67" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D67" s="6"/>
-      <c r="E67" s="1" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="68" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D68" s="6"/>
       <c r="F68" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
+      <c r="G69" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="70" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D70" s="6"/>
@@ -1697,129 +1720,81 @@
       </c>
     </row>
     <row r="72" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="F72" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17" t="s">
+      <c r="D72" s="6"/>
+    </row>
+    <row r="73" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D73" s="6"/>
+      <c r="E73" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D74" s="6"/>
+      <c r="F74" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D75" s="6"/>
+      <c r="F75" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="76" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D76" s="6"/>
+    </row>
+    <row r="77" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="F77" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I72" s="17"/>
-      <c r="J72" s="17" t="s">
+      <c r="I77" s="14"/>
+      <c r="J77" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K72" s="17"/>
-      <c r="L72" s="17" t="s">
+      <c r="K77" s="14"/>
+      <c r="L77" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="M72" s="17"/>
-      <c r="N72" s="14" t="s">
+      <c r="M77" s="14"/>
+      <c r="N77" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="O72" s="14"/>
-      <c r="P72" s="14" t="s">
+      <c r="O77" s="15"/>
+      <c r="P77" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="Q72" s="14"/>
-    </row>
-    <row r="73" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="E73" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F73" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G73" s="15"/>
-      <c r="H73" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I73" s="18"/>
-      <c r="J73" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="K73" s="15"/>
-      <c r="L73" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M73" s="8"/>
-      <c r="N73" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="O73" s="8"/>
-      <c r="P73" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q73" s="8"/>
-    </row>
-    <row r="74" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="E74" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="75" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="F75" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-    </row>
-    <row r="76" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-    </row>
-    <row r="77" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="F77" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G77" s="17"/>
-      <c r="H77" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I77" s="17"/>
-      <c r="J77" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="K77" s="17"/>
-      <c r="L77" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="M77" s="17"/>
-      <c r="N77" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="O77" s="14"/>
-      <c r="P77" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q77" s="14"/>
+      <c r="Q77" s="15"/>
     </row>
     <row r="78" spans="4:17" x14ac:dyDescent="0.15">
       <c r="E78" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F78" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G78" s="15"/>
-      <c r="H78" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="I78" s="18"/>
-      <c r="J78" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="K78" s="15"/>
+        <v>35</v>
+      </c>
+      <c r="F78" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G78" s="16"/>
+      <c r="H78" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I78" s="17"/>
+      <c r="J78" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K78" s="16"/>
       <c r="L78" s="8" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="M78" s="8"/>
       <c r="N78" s="8" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="O78" s="8"/>
       <c r="P78" s="8" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="Q78" s="8"/>
     </row>
@@ -1830,63 +1805,68 @@
     </row>
     <row r="80" spans="4:17" x14ac:dyDescent="0.15">
       <c r="F80" s="7" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
     </row>
+    <row r="81" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+    </row>
     <row r="82" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="F82" s="17" t="s">
+      <c r="F82" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G82" s="17"/>
-      <c r="H82" s="17" t="s">
+      <c r="G82" s="14"/>
+      <c r="H82" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I82" s="17"/>
-      <c r="J82" s="17" t="s">
+      <c r="I82" s="14"/>
+      <c r="J82" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K82" s="17"/>
-      <c r="L82" s="17" t="s">
+      <c r="K82" s="14"/>
+      <c r="L82" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="M82" s="17"/>
-      <c r="N82" s="14" t="s">
+      <c r="M82" s="14"/>
+      <c r="N82" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="O82" s="14"/>
-      <c r="P82" s="14" t="s">
+      <c r="O82" s="15"/>
+      <c r="P82" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="Q82" s="14"/>
+      <c r="Q82" s="15"/>
     </row>
     <row r="83" spans="5:17" x14ac:dyDescent="0.15">
       <c r="E83" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G83" s="16"/>
+      <c r="H83" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F83" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G83" s="15"/>
-      <c r="H83" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="I83" s="18"/>
-      <c r="J83" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="K83" s="15"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="K83" s="16"/>
       <c r="L83" s="8" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="M83" s="8"/>
       <c r="N83" s="8" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="O83" s="8"/>
       <c r="P83" s="8" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="Q83" s="8"/>
     </row>
@@ -1897,186 +1877,154 @@
     </row>
     <row r="85" spans="5:17" x14ac:dyDescent="0.15">
       <c r="F85" s="7" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
     </row>
     <row r="87" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="F87" s="17" t="s">
+      <c r="F87" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G87" s="17"/>
-      <c r="H87" s="17" t="s">
+      <c r="G87" s="14"/>
+      <c r="H87" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I87" s="17"/>
-      <c r="J87" s="17" t="s">
+      <c r="I87" s="14"/>
+      <c r="J87" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K87" s="17"/>
-      <c r="L87" s="17" t="s">
+      <c r="K87" s="14"/>
+      <c r="L87" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="M87" s="17"/>
-      <c r="N87" s="14" t="s">
+      <c r="M87" s="14"/>
+      <c r="N87" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="O87" s="14"/>
-      <c r="P87" s="14" t="s">
+      <c r="O87" s="15"/>
+      <c r="P87" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="Q87" s="14"/>
+      <c r="Q87" s="15"/>
     </row>
     <row r="88" spans="5:17" x14ac:dyDescent="0.15">
       <c r="E88" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F88" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G88" s="15"/>
-      <c r="H88" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="I88" s="18"/>
-      <c r="J88" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="K88" s="15"/>
+        <v>44</v>
+      </c>
+      <c r="F88" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G88" s="16"/>
+      <c r="H88" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I88" s="17"/>
+      <c r="J88" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="K88" s="16"/>
       <c r="L88" s="8" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="M88" s="8"/>
       <c r="N88" s="8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="O88" s="8"/>
       <c r="P88" s="8" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="Q88" s="8"/>
     </row>
     <row r="89" spans="5:17" x14ac:dyDescent="0.15">
       <c r="E89" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="10"/>
-      <c r="I89" s="10"/>
-      <c r="J89" s="9"/>
-      <c r="K89" s="9"/>
-      <c r="L89" s="9"/>
-      <c r="M89" s="9"/>
-      <c r="N89" s="9"/>
-      <c r="O89" s="9"/>
-      <c r="P89" s="9"/>
-      <c r="Q89" s="9"/>
+        <v>42</v>
+      </c>
     </row>
     <row r="90" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="F90" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G90" s="9"/>
-      <c r="H90" s="10"/>
-      <c r="I90" s="10"/>
-      <c r="J90" s="9"/>
-      <c r="K90" s="9"/>
-      <c r="L90" s="9"/>
-      <c r="M90" s="9"/>
-      <c r="N90" s="9"/>
-      <c r="O90" s="9"/>
-      <c r="P90" s="9"/>
-      <c r="Q90" s="9"/>
-    </row>
-    <row r="91" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="F91" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="G91" s="9"/>
-      <c r="H91" s="10"/>
-      <c r="I91" s="10"/>
-      <c r="J91" s="9"/>
-      <c r="K91" s="9"/>
-      <c r="L91" s="9"/>
-      <c r="M91" s="9"/>
-      <c r="N91" s="9"/>
-      <c r="O91" s="9"/>
-      <c r="P91" s="9"/>
-      <c r="Q91" s="9"/>
+      <c r="F90" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
     </row>
     <row r="92" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="10"/>
-      <c r="I92" s="10"/>
-      <c r="J92" s="9"/>
-      <c r="K92" s="9"/>
-      <c r="L92" s="9"/>
-      <c r="M92" s="9"/>
-      <c r="N92" s="9"/>
-      <c r="O92" s="9"/>
-      <c r="P92" s="9"/>
-      <c r="Q92" s="9"/>
+      <c r="F92" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G92" s="14"/>
+      <c r="H92" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I92" s="14"/>
+      <c r="J92" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K92" s="14"/>
+      <c r="L92" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M92" s="14"/>
+      <c r="N92" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="O92" s="15"/>
+      <c r="P92" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q92" s="15"/>
     </row>
     <row r="93" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="F93" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G93" s="17"/>
+      <c r="E93" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F93" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G93" s="16"/>
       <c r="H93" s="17" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="I93" s="17"/>
-      <c r="J93" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="K93" s="17"/>
-      <c r="L93" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="M93" s="17"/>
-      <c r="N93" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="O93" s="14"/>
-      <c r="P93" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q93" s="14"/>
+      <c r="J93" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="K93" s="16"/>
+      <c r="L93" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M93" s="8"/>
+      <c r="N93" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c r="P93" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q93" s="8"/>
     </row>
     <row r="94" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="E94" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F94" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G94" s="15"/>
-      <c r="H94" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="I94" s="18"/>
-      <c r="J94" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="K94" s="15"/>
-      <c r="L94" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="M94" s="8"/>
-      <c r="N94" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="O94" s="8"/>
-      <c r="P94" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q94" s="8"/>
+      <c r="E94" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="9"/>
+      <c r="O94" s="9"/>
+      <c r="P94" s="9"/>
+      <c r="Q94" s="9"/>
     </row>
     <row r="95" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="F95" s="9"/>
+      <c r="F95" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="G95" s="9"/>
       <c r="H95" s="10"/>
       <c r="I95" s="10"/>
@@ -2090,289 +2038,294 @@
       <c r="Q95" s="9"/>
     </row>
     <row r="96" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="F96" s="17" t="s">
+      <c r="F96" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G96" s="9"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="9"/>
+      <c r="M96" s="9"/>
+      <c r="N96" s="9"/>
+      <c r="O96" s="9"/>
+      <c r="P96" s="9"/>
+      <c r="Q96" s="9"/>
+    </row>
+    <row r="97" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="9"/>
+      <c r="M97" s="9"/>
+      <c r="N97" s="9"/>
+      <c r="O97" s="9"/>
+      <c r="P97" s="9"/>
+      <c r="Q97" s="9"/>
+    </row>
+    <row r="98" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="F98" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G96" s="17"/>
-      <c r="H96" s="17" t="s">
+      <c r="G98" s="14"/>
+      <c r="H98" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I96" s="17"/>
-      <c r="J96" s="17" t="s">
+      <c r="I98" s="14"/>
+      <c r="J98" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K96" s="17"/>
-      <c r="L96" s="17" t="s">
+      <c r="K98" s="14"/>
+      <c r="L98" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="M96" s="17"/>
-      <c r="N96" s="14" t="s">
+      <c r="M98" s="14"/>
+      <c r="N98" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="O96" s="14"/>
-      <c r="P96" s="14" t="s">
+      <c r="O98" s="15"/>
+      <c r="P98" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="Q96" s="14"/>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="E97" s="6" t="s">
+      <c r="Q98" s="15"/>
+    </row>
+    <row r="99" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E99" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F97" s="15" t="s">
+      <c r="F99" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="G97" s="15"/>
-      <c r="H97" s="16"/>
-      <c r="I97" s="16"/>
-      <c r="J97" s="16"/>
-      <c r="K97" s="16"/>
-      <c r="L97" s="16"/>
-      <c r="M97" s="16"/>
-      <c r="N97" s="16"/>
-      <c r="O97" s="16"/>
-      <c r="P97" s="8" t="s">
+      <c r="G99" s="16"/>
+      <c r="H99" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="Q97" s="8"/>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="F99" s="17" t="s">
+      <c r="I99" s="17"/>
+      <c r="J99" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="K99" s="16"/>
+      <c r="L99" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M99" s="8"/>
+      <c r="N99" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c r="P99" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q99" s="8"/>
+    </row>
+    <row r="100" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9"/>
+      <c r="N100" s="9"/>
+      <c r="O100" s="9"/>
+      <c r="P100" s="9"/>
+      <c r="Q100" s="9"/>
+    </row>
+    <row r="101" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="F101" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G99" s="17"/>
-      <c r="H99" s="17" t="s">
+      <c r="G101" s="14"/>
+      <c r="H101" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I99" s="17"/>
-      <c r="J99" s="17" t="s">
+      <c r="I101" s="14"/>
+      <c r="J101" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K99" s="17"/>
-      <c r="L99" s="17" t="s">
+      <c r="K101" s="14"/>
+      <c r="L101" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="M99" s="17"/>
-      <c r="N99" s="14" t="s">
+      <c r="M101" s="14"/>
+      <c r="N101" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="O99" s="14"/>
-      <c r="P99" s="14" t="s">
+      <c r="O101" s="15"/>
+      <c r="P101" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="Q99" s="14"/>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="E100" s="6" t="s">
+      <c r="Q101" s="15"/>
+    </row>
+    <row r="102" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E102" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F102" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G102" s="16"/>
+      <c r="H102" s="18"/>
+      <c r="I102" s="18"/>
+      <c r="J102" s="18"/>
+      <c r="K102" s="18"/>
+      <c r="L102" s="18"/>
+      <c r="M102" s="18"/>
+      <c r="N102" s="18"/>
+      <c r="O102" s="18"/>
+      <c r="P102" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q102" s="8"/>
+    </row>
+    <row r="104" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="F104" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G104" s="14"/>
+      <c r="H104" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I104" s="14"/>
+      <c r="J104" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K104" s="14"/>
+      <c r="L104" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M104" s="14"/>
+      <c r="N104" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="O104" s="15"/>
+      <c r="P104" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q104" s="15"/>
+    </row>
+    <row r="105" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E105" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F105" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G105" s="16"/>
+      <c r="H105" s="18"/>
+      <c r="I105" s="18"/>
+      <c r="J105" s="18"/>
+      <c r="K105" s="18"/>
+      <c r="L105" s="18"/>
+      <c r="M105" s="18"/>
+      <c r="N105" s="18"/>
+      <c r="O105" s="18"/>
+      <c r="P105" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q105" s="8"/>
+    </row>
+    <row r="107" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="F107" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G107" s="14"/>
+      <c r="H107" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I107" s="14"/>
+      <c r="J107" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K107" s="14"/>
+      <c r="L107" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M107" s="14"/>
+      <c r="N107" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="O107" s="15"/>
+      <c r="P107" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q107" s="15"/>
+    </row>
+    <row r="108" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E108" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F108" s="16"/>
+      <c r="G108" s="16"/>
+      <c r="H108" s="18"/>
+      <c r="I108" s="18"/>
+      <c r="J108" s="18"/>
+      <c r="K108" s="18"/>
+      <c r="L108" s="18"/>
+      <c r="M108" s="18"/>
+      <c r="N108" s="18"/>
+      <c r="O108" s="18"/>
+      <c r="P108" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F100" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G100" s="15"/>
-      <c r="H100" s="16"/>
-      <c r="I100" s="16"/>
-      <c r="J100" s="16"/>
-      <c r="K100" s="16"/>
-      <c r="L100" s="16"/>
-      <c r="M100" s="16"/>
-      <c r="N100" s="16"/>
-      <c r="O100" s="16"/>
-      <c r="P100" s="8" t="s">
+      <c r="Q108" s="8"/>
+    </row>
+    <row r="109" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E109" s="6"/>
+    </row>
+    <row r="110" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="F110" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G110" s="14"/>
+      <c r="H110" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I110" s="14"/>
+      <c r="J110" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K110" s="14"/>
+      <c r="L110" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M110" s="14"/>
+      <c r="N110" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="O110" s="15"/>
+      <c r="P110" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q110" s="15"/>
+    </row>
+    <row r="111" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E111" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="Q100" s="8"/>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="F102" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G102" s="17"/>
-      <c r="H102" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I102" s="17"/>
-      <c r="J102" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="K102" s="17"/>
-      <c r="L102" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="M102" s="17"/>
-      <c r="N102" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="O102" s="14"/>
-      <c r="P102" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q102" s="14"/>
-    </row>
-    <row r="103" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="E103" s="6" t="s">
+      <c r="F111" s="16"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="18"/>
+      <c r="I111" s="18"/>
+      <c r="J111" s="18"/>
+      <c r="K111" s="18"/>
+      <c r="L111" s="18"/>
+      <c r="M111" s="18"/>
+      <c r="N111" s="18"/>
+      <c r="O111" s="18"/>
+      <c r="P111" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F103" s="15"/>
-      <c r="G103" s="15"/>
-      <c r="H103" s="16"/>
-      <c r="I103" s="16"/>
-      <c r="J103" s="16"/>
-      <c r="K103" s="16"/>
-      <c r="L103" s="16"/>
-      <c r="M103" s="16"/>
-      <c r="N103" s="16"/>
-      <c r="O103" s="16"/>
-      <c r="P103" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q103" s="8"/>
-    </row>
-    <row r="104" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="E104" s="6"/>
-    </row>
-    <row r="105" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="F105" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G105" s="17"/>
-      <c r="H105" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I105" s="17"/>
-      <c r="J105" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="K105" s="17"/>
-      <c r="L105" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="M105" s="17"/>
-      <c r="N105" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="O105" s="14"/>
-      <c r="P105" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q105" s="14"/>
-    </row>
-    <row r="106" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="E106" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F106" s="15"/>
-      <c r="G106" s="15"/>
-      <c r="H106" s="16"/>
-      <c r="I106" s="16"/>
-      <c r="J106" s="16"/>
-      <c r="K106" s="16"/>
-      <c r="L106" s="16"/>
-      <c r="M106" s="16"/>
-      <c r="N106" s="16"/>
-      <c r="O106" s="16"/>
-      <c r="P106" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q106" s="8"/>
-    </row>
-    <row r="107" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="E107" s="6"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="11"/>
-      <c r="I107" s="11"/>
-      <c r="J107" s="11"/>
-      <c r="K107" s="11"/>
-      <c r="L107" s="11"/>
-      <c r="M107" s="11"/>
-      <c r="N107" s="11"/>
-      <c r="O107" s="11"/>
-      <c r="P107" s="9"/>
-      <c r="Q107" s="9"/>
-    </row>
-    <row r="108" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="C108" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E108" s="6"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="11"/>
-      <c r="I108" s="11"/>
-      <c r="J108" s="11"/>
-      <c r="K108" s="11"/>
-      <c r="L108" s="11"/>
-      <c r="M108" s="11"/>
-      <c r="N108" s="11"/>
-      <c r="O108" s="11"/>
-      <c r="P108" s="9"/>
-      <c r="Q108" s="9"/>
-    </row>
-    <row r="109" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="D109" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="11"/>
-      <c r="I109" s="11"/>
-      <c r="J109" s="11"/>
-      <c r="K109" s="11"/>
-      <c r="L109" s="11"/>
-      <c r="M109" s="11"/>
-      <c r="N109" s="11"/>
-      <c r="O109" s="11"/>
-      <c r="P109" s="9"/>
-      <c r="Q109" s="9"/>
-    </row>
-    <row r="110" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="E110" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="11"/>
-      <c r="I110" s="11"/>
-      <c r="J110" s="13">
-        <f>[1]职业定位属性配比!$C$88</f>
-        <v>1.5064008734601597</v>
-      </c>
-      <c r="K110" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="L110" s="13">
-        <f>[1]职业定位属性配比!$T$59</f>
-        <v>2.6287823312953829</v>
-      </c>
-      <c r="M110" s="11"/>
-      <c r="N110" s="11"/>
-      <c r="O110" s="11"/>
-      <c r="P110" s="9"/>
-      <c r="Q110" s="9"/>
-    </row>
-    <row r="111" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="E111" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="11"/>
-      <c r="I111" s="11"/>
-      <c r="J111" s="11"/>
-      <c r="K111" s="11"/>
-      <c r="L111" s="11"/>
-      <c r="M111" s="11"/>
-      <c r="N111" s="11"/>
-      <c r="O111" s="11"/>
-      <c r="P111" s="9"/>
-      <c r="Q111" s="9"/>
-    </row>
-    <row r="112" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="Q111" s="8"/>
+    </row>
+    <row r="112" spans="5:17" x14ac:dyDescent="0.15">
       <c r="E112" s="6"/>
-      <c r="F112" s="9" t="s">
-        <v>103</v>
-      </c>
+      <c r="F112" s="9"/>
       <c r="G112" s="9"/>
       <c r="H112" s="11"/>
       <c r="I112" s="11"/>
@@ -2386,11 +2339,12 @@
       <c r="Q112" s="9"/>
     </row>
     <row r="113" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="C113" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="E113" s="6"/>
       <c r="F113" s="9"/>
-      <c r="G113" s="9" t="s">
-        <v>105</v>
-      </c>
+      <c r="G113" s="9"/>
       <c r="H113" s="11"/>
       <c r="I113" s="11"/>
       <c r="J113" s="11"/>
@@ -2403,19 +2357,14 @@
       <c r="Q113" s="9"/>
     </row>
     <row r="114" spans="3:19" x14ac:dyDescent="0.15">
-      <c r="E114" s="6"/>
+      <c r="D114" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="F114" s="9"/>
-      <c r="G114" s="9" t="s">
-        <v>107</v>
-      </c>
+      <c r="G114" s="9"/>
       <c r="H114" s="11"/>
-      <c r="I114" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="J114" s="12">
-        <f>[1]职业定位属性配比!$N$57</f>
-        <v>1.2</v>
-      </c>
+      <c r="I114" s="11"/>
+      <c r="J114" s="11"/>
       <c r="K114" s="11"/>
       <c r="L114" s="11"/>
       <c r="M114" s="11"/>
@@ -2425,19 +2374,24 @@
       <c r="Q114" s="9"/>
     </row>
     <row r="115" spans="3:19" x14ac:dyDescent="0.15">
-      <c r="E115" s="6"/>
+      <c r="E115" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
       <c r="H115" s="11"/>
-      <c r="I115" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="J115" s="12">
-        <f>[1]职业定位属性配比!$Q$57</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K115" s="11"/>
-      <c r="L115" s="11"/>
+      <c r="I115" s="11"/>
+      <c r="J115" s="13">
+        <f>[1]职业定位属性配比!$C$88</f>
+        <v>1.5064008734601597</v>
+      </c>
+      <c r="K115" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="L115" s="13">
+        <f>[1]职业定位属性配比!$T$59</f>
+        <v>2.6287823312953829</v>
+      </c>
       <c r="M115" s="11"/>
       <c r="N115" s="11"/>
       <c r="O115" s="11"/>
@@ -2445,15 +2399,13 @@
       <c r="Q115" s="9"/>
     </row>
     <row r="116" spans="3:19" x14ac:dyDescent="0.15">
-      <c r="E116" s="6"/>
+      <c r="E116" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="F116" s="9"/>
-      <c r="G116" s="1" t="s">
-        <v>124</v>
-      </c>
+      <c r="G116" s="9"/>
       <c r="H116" s="11"/>
-      <c r="I116" s="11" t="s">
-        <v>108</v>
-      </c>
+      <c r="I116" s="11"/>
       <c r="J116" s="11"/>
       <c r="K116" s="11"/>
       <c r="L116" s="11"/>
@@ -2465,14 +2417,13 @@
     </row>
     <row r="117" spans="3:19" x14ac:dyDescent="0.15">
       <c r="E117" s="6"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="F117" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G117" s="9"/>
       <c r="H117" s="11"/>
-      <c r="I117" s="11" t="s">
-        <v>110</v>
-      </c>
+      <c r="I117" s="11"/>
+      <c r="J117" s="11"/>
       <c r="K117" s="11"/>
       <c r="L117" s="11"/>
       <c r="M117" s="11"/>
@@ -2485,12 +2436,10 @@
       <c r="E118" s="6"/>
       <c r="F118" s="9"/>
       <c r="G118" s="9" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="H118" s="11"/>
-      <c r="I118" s="11" t="s">
-        <v>111</v>
-      </c>
+      <c r="I118" s="11"/>
       <c r="J118" s="11"/>
       <c r="K118" s="11"/>
       <c r="L118" s="11"/>
@@ -2504,13 +2453,16 @@
       <c r="E119" s="6"/>
       <c r="F119" s="9"/>
       <c r="G119" s="9" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="H119" s="11"/>
       <c r="I119" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="J119" s="11"/>
+        <v>104</v>
+      </c>
+      <c r="J119" s="12">
+        <f>[1]职业定位属性配比!$N$57</f>
+        <v>1.2</v>
+      </c>
       <c r="K119" s="11"/>
       <c r="L119" s="11"/>
       <c r="M119" s="11"/>
@@ -2523,11 +2475,14 @@
       <c r="E120" s="6"/>
       <c r="F120" s="9"/>
       <c r="G120" s="9"/>
-      <c r="H120" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="I120" s="11"/>
-      <c r="J120" s="11"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="J120" s="12">
+        <f>[1]职业定位属性配比!$Q$57</f>
+        <v>1.1000000000000001</v>
+      </c>
       <c r="K120" s="11"/>
       <c r="L120" s="11"/>
       <c r="M120" s="11"/>
@@ -2539,11 +2494,13 @@
     <row r="121" spans="3:19" x14ac:dyDescent="0.15">
       <c r="E121" s="6"/>
       <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="I121" s="11"/>
+      <c r="G121" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H121" s="11"/>
+      <c r="I121" s="11" t="s">
+        <v>103</v>
+      </c>
       <c r="J121" s="11"/>
       <c r="K121" s="11"/>
       <c r="L121" s="11"/>
@@ -2557,13 +2514,12 @@
       <c r="E122" s="6"/>
       <c r="F122" s="9"/>
       <c r="G122" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H122" s="11"/>
       <c r="I122" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="J122" s="11"/>
+        <v>105</v>
+      </c>
       <c r="K122" s="11"/>
       <c r="L122" s="11"/>
       <c r="M122" s="11"/>
@@ -2575,10 +2531,12 @@
     <row r="123" spans="3:19" x14ac:dyDescent="0.15">
       <c r="E123" s="6"/>
       <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
+      <c r="G123" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="H123" s="11"/>
       <c r="I123" s="11" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="J123" s="11"/>
       <c r="K123" s="11"/>
@@ -2588,18 +2546,17 @@
       <c r="O123" s="11"/>
       <c r="P123" s="9"/>
       <c r="Q123" s="9"/>
-      <c r="S123" s="1" t="s">
-        <v>127</v>
-      </c>
     </row>
     <row r="124" spans="3:19" x14ac:dyDescent="0.15">
       <c r="E124" s="6"/>
       <c r="F124" s="9"/>
-      <c r="G124" s="9"/>
-      <c r="H124" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="I124" s="11"/>
+      <c r="G124" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H124" s="11"/>
+      <c r="I124" s="11" t="s">
+        <v>107</v>
+      </c>
       <c r="J124" s="11"/>
       <c r="K124" s="11"/>
       <c r="L124" s="11"/>
@@ -2614,7 +2571,7 @@
       <c r="F125" s="9"/>
       <c r="G125" s="9"/>
       <c r="H125" s="11" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="I125" s="11"/>
       <c r="J125" s="11"/>
@@ -2631,7 +2588,7 @@
       <c r="F126" s="9"/>
       <c r="G126" s="9"/>
       <c r="H126" s="11" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="I126" s="11"/>
       <c r="J126" s="11"/>
@@ -2646,9 +2603,13 @@
     <row r="127" spans="3:19" x14ac:dyDescent="0.15">
       <c r="E127" s="6"/>
       <c r="F127" s="9"/>
-      <c r="G127" s="9"/>
+      <c r="G127" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="H127" s="11"/>
-      <c r="I127" s="11"/>
+      <c r="I127" s="11" t="s">
+        <v>107</v>
+      </c>
       <c r="J127" s="11"/>
       <c r="K127" s="11"/>
       <c r="L127" s="11"/>
@@ -2659,13 +2620,13 @@
       <c r="Q127" s="9"/>
     </row>
     <row r="128" spans="3:19" x14ac:dyDescent="0.15">
-      <c r="C128" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="E128" s="6"/>
       <c r="F128" s="9"/>
       <c r="G128" s="9"/>
-      <c r="I128" s="11"/>
+      <c r="H128" s="11"/>
+      <c r="I128" s="11" t="s">
+        <v>118</v>
+      </c>
       <c r="J128" s="11"/>
       <c r="K128" s="11"/>
       <c r="L128" s="11"/>
@@ -2674,14 +2635,17 @@
       <c r="O128" s="11"/>
       <c r="P128" s="9"/>
       <c r="Q128" s="9"/>
-    </row>
-    <row r="129" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D129" s="1" t="s">
-        <v>129</v>
-      </c>
+      <c r="S128" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="129" spans="3:17" x14ac:dyDescent="0.15">
       <c r="E129" s="6"/>
       <c r="F129" s="9"/>
       <c r="G129" s="9"/>
+      <c r="H129" s="11" t="s">
+        <v>121</v>
+      </c>
       <c r="I129" s="11"/>
       <c r="J129" s="11"/>
       <c r="K129" s="11"/>
@@ -2692,11 +2656,13 @@
       <c r="P129" s="9"/>
       <c r="Q129" s="9"/>
     </row>
-    <row r="130" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="130" spans="3:17" x14ac:dyDescent="0.15">
       <c r="E130" s="6"/>
       <c r="F130" s="9"/>
       <c r="G130" s="9"/>
-      <c r="H130" s="11"/>
+      <c r="H130" s="11" t="s">
+        <v>120</v>
+      </c>
       <c r="I130" s="11"/>
       <c r="J130" s="11"/>
       <c r="K130" s="11"/>
@@ -2707,11 +2673,13 @@
       <c r="P130" s="9"/>
       <c r="Q130" s="9"/>
     </row>
-    <row r="131" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="131" spans="3:17" x14ac:dyDescent="0.15">
       <c r="E131" s="6"/>
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
-      <c r="H131" s="11"/>
+      <c r="H131" s="11" t="s">
+        <v>123</v>
+      </c>
       <c r="I131" s="11"/>
       <c r="J131" s="11"/>
       <c r="K131" s="11"/>
@@ -2722,7 +2690,7 @@
       <c r="P131" s="9"/>
       <c r="Q131" s="9"/>
     </row>
-    <row r="132" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="132" spans="3:17" x14ac:dyDescent="0.15">
       <c r="E132" s="6"/>
       <c r="F132" s="9"/>
       <c r="G132" s="9"/>
@@ -2737,11 +2705,13 @@
       <c r="P132" s="9"/>
       <c r="Q132" s="9"/>
     </row>
-    <row r="133" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="133" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C133" s="6" t="s">
+        <v>110</v>
+      </c>
       <c r="E133" s="6"/>
       <c r="F133" s="9"/>
       <c r="G133" s="9"/>
-      <c r="H133" s="11"/>
       <c r="I133" s="11"/>
       <c r="J133" s="11"/>
       <c r="K133" s="11"/>
@@ -2752,97 +2722,174 @@
       <c r="P133" s="9"/>
       <c r="Q133" s="9"/>
     </row>
+    <row r="134" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="D134" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E134" s="6"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
+      <c r="I134" s="11"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="11"/>
+      <c r="L134" s="11"/>
+      <c r="M134" s="11"/>
+      <c r="N134" s="11"/>
+      <c r="O134" s="11"/>
+      <c r="P134" s="9"/>
+      <c r="Q134" s="9"/>
+    </row>
+    <row r="135" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="E135" s="6"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="11"/>
+      <c r="I135" s="11"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="11"/>
+      <c r="L135" s="11"/>
+      <c r="M135" s="11"/>
+      <c r="N135" s="11"/>
+      <c r="O135" s="11"/>
+      <c r="P135" s="9"/>
+      <c r="Q135" s="9"/>
+    </row>
+    <row r="136" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="E136" s="6"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="11"/>
+      <c r="I136" s="11"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="11"/>
+      <c r="L136" s="11"/>
+      <c r="M136" s="11"/>
+      <c r="N136" s="11"/>
+      <c r="O136" s="11"/>
+      <c r="P136" s="9"/>
+      <c r="Q136" s="9"/>
+    </row>
+    <row r="137" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="E137" s="6"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="11"/>
+      <c r="I137" s="11"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="11"/>
+      <c r="L137" s="11"/>
+      <c r="M137" s="11"/>
+      <c r="N137" s="11"/>
+      <c r="O137" s="11"/>
+      <c r="P137" s="9"/>
+      <c r="Q137" s="9"/>
+    </row>
+    <row r="138" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="E138" s="6"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="11"/>
+      <c r="I138" s="11"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="11"/>
+      <c r="L138" s="11"/>
+      <c r="M138" s="11"/>
+      <c r="N138" s="11"/>
+      <c r="O138" s="11"/>
+      <c r="P138" s="9"/>
+      <c r="Q138" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="J107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="J104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="J99:K99"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
     <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
     <mergeCell ref="F83:G83"/>
     <mergeCell ref="H83:I83"/>
     <mergeCell ref="J83:K83"/>
     <mergeCell ref="F87:G87"/>
     <mergeCell ref="H87:I87"/>
     <mergeCell ref="J87:K87"/>
-    <mergeCell ref="L87:M87"/>
-    <mergeCell ref="N87:O87"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="L96:M96"/>
-    <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="L93:M93"/>
-    <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="L97:M97"/>
-    <mergeCell ref="N97:O97"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="L100:M100"/>
-    <mergeCell ref="N100:O100"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="J99:K99"/>
-    <mergeCell ref="L99:M99"/>
-    <mergeCell ref="N99:O99"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="L102:M102"/>
-    <mergeCell ref="N102:O102"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="J103:K103"/>
-    <mergeCell ref="L103:M103"/>
-    <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="L106:M106"/>
-    <mergeCell ref="N106:O106"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="J105:K105"/>
-    <mergeCell ref="L105:M105"/>
-    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:K77"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gd/数值规划/战力计算.xlsx
+++ b/gd/数值规划/战力计算.xlsx
@@ -442,111 +442,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>属性带来的战力提升=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总战力=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动所占技能战力=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招升级提升比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招所占技能战力=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招每级提升战力=大招所占技能战力*大招升级提升比例/99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招基础提升战力=大招所占技能战力*（1-大招升级提升比例）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要通过不同的AI修正不同的提升比例，即不同种类的AI对应的提升比例不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通技能提升战力=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通技能每级提升战力=普通技能提升战力*普通技能升级提升比例/(99*（宠物拥有技能权重总值-防御权重-buff权重（若拥有技能为dot则不用减去）））</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通技能基础提升战力=普通技能提升战力*（1-普通技能升级提升比例）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题：dot技能是否放入法术技能而不算是buff技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同技能每级提升战力=普通技能每级提升战力*宠物该技能权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性带来的战力提升+被动所占技能战力+大招基础提升战力+大招每级提升战力*大招等级+普通技能基础提升战力+物理技能每级提升战力*物理技能等级+法术技能每级提升战力*法术技能等级+dot技能每级提升战力*dot技能等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n1：每点体力对生命值带来的加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n1，n2，n3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n1~n3表示一级，二级属性之间的转换关系（具体定义见后）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数1(k1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n2：每点智力对魔法攻击力带来的加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n3：每点力量对物理攻击力带来的加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体计算方法见怪物属性配置及伤害公式 属性说明分页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进对局后属性不计算在内，只计算进对局前属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>普通技能升级提升比例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>属性带来的战力提升=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总战力=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（K1*体力）/受伤比*（1+受治疗量加成*0.33）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（k2*智力+K3*力量）/2*速度*（暴击率*（暴击伤害+1）+（1-暴击率）*1）*（1+前置能量/100/对局大招次数（3左右））</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动所占技能战力=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大招升级提升比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大招所占技能战力=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大招每级提升战力=大招所占技能战力*大招升级提升比例/99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大招基础提升战力=大招所占技能战力*（1-大招升级提升比例）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要通过不同的AI修正不同的提升比例，即不同种类的AI对应的提升比例不同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通技能提升战力=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通技能每级提升战力=普通技能提升战力*普通技能升级提升比例/(99*（宠物拥有技能权重总值-防御权重-buff权重（若拥有技能为dot则不用减去）））</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通技能基础提升战力=普通技能提升战力*（1-普通技能升级提升比例）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题：dot技能是否放入法术技能而不算是buff技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不同技能每级提升战力=普通技能每级提升战力*宠物该技能权重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性带来的战力提升+被动所占技能战力+大招基础提升战力+大招每级提升战力*大招等级+普通技能基础提升战力+物理技能每级提升战力*物理技能等级+法术技能每级提升战力*法术技能等级+dot技能每级提升战力*dot技能等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全局变量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n1：每点体力对生命值带来的加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n1，n2，n3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n1~n3表示一级，二级属性之间的转换关系（具体定义见后）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数1(k1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n2：每点智力对魔法攻击力带来的加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n3：每点力量对物理攻击力带来的加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体计算方法见怪物属性配置及伤害公式 属性说明分页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进对局后属性不计算在内，只计算进对局前属性</t>
+    <t>（k2*智力+K3*力量）/2*速度*（暴击率*暴击伤害+（1-暴击率）*1）*（1+前置能量/100/对局大招次数（3左右））</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -681,20 +681,20 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1493,8 +1493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1632,7 +1632,7 @@
         <v>57</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="4:7" x14ac:dyDescent="0.15">
@@ -1641,7 +1641,7 @@
         <v>26</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="4:7" x14ac:dyDescent="0.15">
@@ -1650,7 +1650,7 @@
     <row r="59" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D59" s="6"/>
       <c r="E59" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>93</v>
@@ -1663,19 +1663,19 @@
     <row r="61" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D61" s="6"/>
       <c r="E61" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D62" s="6"/>
       <c r="F62" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D63" s="6"/>
       <c r="G63" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="4:7" x14ac:dyDescent="0.15">
@@ -1725,66 +1725,66 @@
     <row r="73" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D73" s="6"/>
       <c r="E73" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D74" s="6"/>
       <c r="F74" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D75" s="6"/>
       <c r="F75" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D76" s="6"/>
     </row>
     <row r="77" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="F77" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="G77" s="14"/>
-      <c r="H77" s="14" t="s">
+      <c r="F77" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="I77" s="14"/>
-      <c r="J77" s="14" t="s">
+      <c r="I77" s="17"/>
+      <c r="J77" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="K77" s="14"/>
-      <c r="L77" s="14" t="s">
+      <c r="K77" s="17"/>
+      <c r="L77" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="M77" s="14"/>
-      <c r="N77" s="15" t="s">
+      <c r="M77" s="17"/>
+      <c r="N77" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="O77" s="15"/>
-      <c r="P77" s="15" t="s">
+      <c r="O77" s="14"/>
+      <c r="P77" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="Q77" s="15"/>
+      <c r="Q77" s="14"/>
     </row>
     <row r="78" spans="4:17" x14ac:dyDescent="0.15">
       <c r="E78" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F78" s="16" t="s">
+      <c r="F78" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G78" s="16"/>
-      <c r="H78" s="17" t="s">
+      <c r="G78" s="15"/>
+      <c r="H78" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I78" s="17"/>
-      <c r="J78" s="16" t="s">
+      <c r="I78" s="18"/>
+      <c r="J78" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="K78" s="16"/>
+      <c r="K78" s="15"/>
       <c r="L78" s="8" t="s">
         <v>32</v>
       </c>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="80" spans="4:17" x14ac:dyDescent="0.15">
       <c r="F80" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
@@ -1816,47 +1816,47 @@
       <c r="H81" s="7"/>
     </row>
     <row r="82" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="F82" s="14" t="s">
+      <c r="F82" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G82" s="14"/>
-      <c r="H82" s="14" t="s">
+      <c r="G82" s="17"/>
+      <c r="H82" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="I82" s="14"/>
-      <c r="J82" s="14" t="s">
+      <c r="I82" s="17"/>
+      <c r="J82" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="K82" s="14"/>
-      <c r="L82" s="14" t="s">
+      <c r="K82" s="17"/>
+      <c r="L82" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="M82" s="14"/>
-      <c r="N82" s="15" t="s">
+      <c r="M82" s="17"/>
+      <c r="N82" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="O82" s="15"/>
-      <c r="P82" s="15" t="s">
+      <c r="O82" s="14"/>
+      <c r="P82" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="Q82" s="15"/>
+      <c r="Q82" s="14"/>
     </row>
     <row r="83" spans="5:17" x14ac:dyDescent="0.15">
       <c r="E83" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F83" s="16" t="s">
+      <c r="F83" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G83" s="16"/>
-      <c r="H83" s="17" t="s">
+      <c r="G83" s="15"/>
+      <c r="H83" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="I83" s="17"/>
-      <c r="J83" s="16" t="s">
+      <c r="I83" s="18"/>
+      <c r="J83" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="K83" s="16"/>
+      <c r="K83" s="15"/>
       <c r="L83" s="8" t="s">
         <v>48</v>
       </c>
@@ -1877,53 +1877,53 @@
     </row>
     <row r="85" spans="5:17" x14ac:dyDescent="0.15">
       <c r="F85" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
     </row>
     <row r="87" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="F87" s="14" t="s">
+      <c r="F87" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G87" s="14"/>
-      <c r="H87" s="14" t="s">
+      <c r="G87" s="17"/>
+      <c r="H87" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="I87" s="14"/>
-      <c r="J87" s="14" t="s">
+      <c r="I87" s="17"/>
+      <c r="J87" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="K87" s="14"/>
-      <c r="L87" s="14" t="s">
+      <c r="K87" s="17"/>
+      <c r="L87" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="M87" s="14"/>
-      <c r="N87" s="15" t="s">
+      <c r="M87" s="17"/>
+      <c r="N87" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="O87" s="15"/>
-      <c r="P87" s="15" t="s">
+      <c r="O87" s="14"/>
+      <c r="P87" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="Q87" s="15"/>
+      <c r="Q87" s="14"/>
     </row>
     <row r="88" spans="5:17" x14ac:dyDescent="0.15">
       <c r="E88" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F88" s="16" t="s">
+      <c r="F88" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="G88" s="16"/>
-      <c r="H88" s="17" t="s">
+      <c r="G88" s="15"/>
+      <c r="H88" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="I88" s="17"/>
-      <c r="J88" s="16" t="s">
+      <c r="I88" s="18"/>
+      <c r="J88" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="K88" s="16"/>
+      <c r="K88" s="15"/>
       <c r="L88" s="8" t="s">
         <v>54</v>
       </c>
@@ -1944,53 +1944,53 @@
     </row>
     <row r="90" spans="5:17" x14ac:dyDescent="0.15">
       <c r="F90" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
     </row>
     <row r="92" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="F92" s="14" t="s">
+      <c r="F92" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G92" s="14"/>
-      <c r="H92" s="14" t="s">
+      <c r="G92" s="17"/>
+      <c r="H92" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="I92" s="14"/>
-      <c r="J92" s="14" t="s">
+      <c r="I92" s="17"/>
+      <c r="J92" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="K92" s="14"/>
-      <c r="L92" s="14" t="s">
+      <c r="K92" s="17"/>
+      <c r="L92" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="M92" s="14"/>
-      <c r="N92" s="15" t="s">
+      <c r="M92" s="17"/>
+      <c r="N92" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="O92" s="15"/>
-      <c r="P92" s="15" t="s">
+      <c r="O92" s="14"/>
+      <c r="P92" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="Q92" s="15"/>
+      <c r="Q92" s="14"/>
     </row>
     <row r="93" spans="5:17" x14ac:dyDescent="0.15">
       <c r="E93" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F93" s="16" t="s">
+      <c r="F93" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G93" s="16"/>
-      <c r="H93" s="17" t="s">
+      <c r="G93" s="15"/>
+      <c r="H93" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="I93" s="17"/>
-      <c r="J93" s="16" t="s">
+      <c r="I93" s="18"/>
+      <c r="J93" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="K93" s="16"/>
+      <c r="K93" s="15"/>
       <c r="L93" s="8" t="s">
         <v>62</v>
       </c>
@@ -2068,47 +2068,47 @@
       <c r="Q97" s="9"/>
     </row>
     <row r="98" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="F98" s="14" t="s">
+      <c r="F98" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G98" s="14"/>
-      <c r="H98" s="14" t="s">
+      <c r="G98" s="17"/>
+      <c r="H98" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="I98" s="14"/>
-      <c r="J98" s="14" t="s">
+      <c r="I98" s="17"/>
+      <c r="J98" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="K98" s="14"/>
-      <c r="L98" s="14" t="s">
+      <c r="K98" s="17"/>
+      <c r="L98" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="M98" s="14"/>
-      <c r="N98" s="15" t="s">
+      <c r="M98" s="17"/>
+      <c r="N98" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="O98" s="15"/>
-      <c r="P98" s="15" t="s">
+      <c r="O98" s="14"/>
+      <c r="P98" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="Q98" s="15"/>
+      <c r="Q98" s="14"/>
     </row>
     <row r="99" spans="5:17" x14ac:dyDescent="0.15">
       <c r="E99" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F99" s="16" t="s">
+      <c r="F99" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G99" s="16"/>
-      <c r="H99" s="17" t="s">
+      <c r="G99" s="15"/>
+      <c r="H99" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="I99" s="17"/>
-      <c r="J99" s="16" t="s">
+      <c r="I99" s="18"/>
+      <c r="J99" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="K99" s="16"/>
+      <c r="K99" s="15"/>
       <c r="L99" s="8" t="s">
         <v>72</v>
       </c>
@@ -2137,139 +2137,139 @@
       <c r="Q100" s="9"/>
     </row>
     <row r="101" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="F101" s="14" t="s">
+      <c r="F101" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G101" s="14"/>
-      <c r="H101" s="14" t="s">
+      <c r="G101" s="17"/>
+      <c r="H101" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="I101" s="14"/>
-      <c r="J101" s="14" t="s">
+      <c r="I101" s="17"/>
+      <c r="J101" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="K101" s="14"/>
-      <c r="L101" s="14" t="s">
+      <c r="K101" s="17"/>
+      <c r="L101" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="M101" s="14"/>
-      <c r="N101" s="15" t="s">
+      <c r="M101" s="17"/>
+      <c r="N101" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="O101" s="15"/>
-      <c r="P101" s="15" t="s">
+      <c r="O101" s="14"/>
+      <c r="P101" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="Q101" s="15"/>
+      <c r="Q101" s="14"/>
     </row>
     <row r="102" spans="5:17" x14ac:dyDescent="0.15">
       <c r="E102" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F102" s="16" t="s">
+      <c r="F102" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G102" s="16"/>
-      <c r="H102" s="18"/>
-      <c r="I102" s="18"/>
-      <c r="J102" s="18"/>
-      <c r="K102" s="18"/>
-      <c r="L102" s="18"/>
-      <c r="M102" s="18"/>
-      <c r="N102" s="18"/>
-      <c r="O102" s="18"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="16"/>
+      <c r="J102" s="16"/>
+      <c r="K102" s="16"/>
+      <c r="L102" s="16"/>
+      <c r="M102" s="16"/>
+      <c r="N102" s="16"/>
+      <c r="O102" s="16"/>
       <c r="P102" s="8" t="s">
         <v>67</v>
       </c>
       <c r="Q102" s="8"/>
     </row>
     <row r="104" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="F104" s="14" t="s">
+      <c r="F104" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G104" s="14"/>
-      <c r="H104" s="14" t="s">
+      <c r="G104" s="17"/>
+      <c r="H104" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="I104" s="14"/>
-      <c r="J104" s="14" t="s">
+      <c r="I104" s="17"/>
+      <c r="J104" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="K104" s="14"/>
-      <c r="L104" s="14" t="s">
+      <c r="K104" s="17"/>
+      <c r="L104" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="M104" s="14"/>
-      <c r="N104" s="15" t="s">
+      <c r="M104" s="17"/>
+      <c r="N104" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="O104" s="15"/>
-      <c r="P104" s="15" t="s">
+      <c r="O104" s="14"/>
+      <c r="P104" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="Q104" s="15"/>
+      <c r="Q104" s="14"/>
     </row>
     <row r="105" spans="5:17" x14ac:dyDescent="0.15">
       <c r="E105" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F105" s="16" t="s">
+      <c r="F105" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="G105" s="16"/>
-      <c r="H105" s="18"/>
-      <c r="I105" s="18"/>
-      <c r="J105" s="18"/>
-      <c r="K105" s="18"/>
-      <c r="L105" s="18"/>
-      <c r="M105" s="18"/>
-      <c r="N105" s="18"/>
-      <c r="O105" s="18"/>
+      <c r="G105" s="15"/>
+      <c r="H105" s="16"/>
+      <c r="I105" s="16"/>
+      <c r="J105" s="16"/>
+      <c r="K105" s="16"/>
+      <c r="L105" s="16"/>
+      <c r="M105" s="16"/>
+      <c r="N105" s="16"/>
+      <c r="O105" s="16"/>
       <c r="P105" s="8" t="s">
         <v>77</v>
       </c>
       <c r="Q105" s="8"/>
     </row>
     <row r="107" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="F107" s="14" t="s">
+      <c r="F107" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G107" s="14"/>
-      <c r="H107" s="14" t="s">
+      <c r="G107" s="17"/>
+      <c r="H107" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="I107" s="14"/>
-      <c r="J107" s="14" t="s">
+      <c r="I107" s="17"/>
+      <c r="J107" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="K107" s="14"/>
-      <c r="L107" s="14" t="s">
+      <c r="K107" s="17"/>
+      <c r="L107" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="M107" s="14"/>
-      <c r="N107" s="15" t="s">
+      <c r="M107" s="17"/>
+      <c r="N107" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="O107" s="15"/>
-      <c r="P107" s="15" t="s">
+      <c r="O107" s="14"/>
+      <c r="P107" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="Q107" s="15"/>
+      <c r="Q107" s="14"/>
     </row>
     <row r="108" spans="5:17" x14ac:dyDescent="0.15">
       <c r="E108" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F108" s="16"/>
-      <c r="G108" s="16"/>
-      <c r="H108" s="18"/>
-      <c r="I108" s="18"/>
-      <c r="J108" s="18"/>
-      <c r="K108" s="18"/>
-      <c r="L108" s="18"/>
-      <c r="M108" s="18"/>
-      <c r="N108" s="18"/>
-      <c r="O108" s="18"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="16"/>
+      <c r="I108" s="16"/>
+      <c r="J108" s="16"/>
+      <c r="K108" s="16"/>
+      <c r="L108" s="16"/>
+      <c r="M108" s="16"/>
+      <c r="N108" s="16"/>
+      <c r="O108" s="16"/>
       <c r="P108" s="8" t="s">
         <v>79</v>
       </c>
@@ -2279,45 +2279,45 @@
       <c r="E109" s="6"/>
     </row>
     <row r="110" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="F110" s="14" t="s">
+      <c r="F110" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G110" s="14"/>
-      <c r="H110" s="14" t="s">
+      <c r="G110" s="17"/>
+      <c r="H110" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="I110" s="14"/>
-      <c r="J110" s="14" t="s">
+      <c r="I110" s="17"/>
+      <c r="J110" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="K110" s="14"/>
-      <c r="L110" s="14" t="s">
+      <c r="K110" s="17"/>
+      <c r="L110" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="M110" s="14"/>
-      <c r="N110" s="15" t="s">
+      <c r="M110" s="17"/>
+      <c r="N110" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="O110" s="15"/>
-      <c r="P110" s="15" t="s">
+      <c r="O110" s="14"/>
+      <c r="P110" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="Q110" s="15"/>
+      <c r="Q110" s="14"/>
     </row>
     <row r="111" spans="5:17" x14ac:dyDescent="0.15">
       <c r="E111" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F111" s="16"/>
-      <c r="G111" s="16"/>
-      <c r="H111" s="18"/>
-      <c r="I111" s="18"/>
-      <c r="J111" s="18"/>
-      <c r="K111" s="18"/>
-      <c r="L111" s="18"/>
-      <c r="M111" s="18"/>
-      <c r="N111" s="18"/>
-      <c r="O111" s="18"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="16"/>
+      <c r="I111" s="16"/>
+      <c r="J111" s="16"/>
+      <c r="K111" s="16"/>
+      <c r="L111" s="16"/>
+      <c r="M111" s="16"/>
+      <c r="N111" s="16"/>
+      <c r="O111" s="16"/>
       <c r="P111" s="8" t="s">
         <v>81</v>
       </c>
@@ -2495,7 +2495,7 @@
       <c r="E121" s="6"/>
       <c r="F121" s="9"/>
       <c r="G121" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H121" s="11"/>
       <c r="I121" s="11" t="s">
@@ -2514,7 +2514,7 @@
       <c r="E122" s="6"/>
       <c r="F122" s="9"/>
       <c r="G122" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H122" s="11"/>
       <c r="I122" s="11" t="s">
@@ -2532,7 +2532,7 @@
       <c r="E123" s="6"/>
       <c r="F123" s="9"/>
       <c r="G123" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H123" s="11"/>
       <c r="I123" s="11" t="s">
@@ -2551,7 +2551,7 @@
       <c r="E124" s="6"/>
       <c r="F124" s="9"/>
       <c r="G124" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H124" s="11"/>
       <c r="I124" s="11" t="s">
@@ -2571,7 +2571,7 @@
       <c r="F125" s="9"/>
       <c r="G125" s="9"/>
       <c r="H125" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I125" s="11"/>
       <c r="J125" s="11"/>
@@ -2588,7 +2588,7 @@
       <c r="F126" s="9"/>
       <c r="G126" s="9"/>
       <c r="H126" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I126" s="11"/>
       <c r="J126" s="11"/>
@@ -2604,7 +2604,7 @@
       <c r="E127" s="6"/>
       <c r="F127" s="9"/>
       <c r="G127" s="9" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="H127" s="11"/>
       <c r="I127" s="11" t="s">
@@ -2625,7 +2625,7 @@
       <c r="G128" s="9"/>
       <c r="H128" s="11"/>
       <c r="I128" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J128" s="11"/>
       <c r="K128" s="11"/>
@@ -2636,7 +2636,7 @@
       <c r="P128" s="9"/>
       <c r="Q128" s="9"/>
       <c r="S128" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="129" spans="3:17" x14ac:dyDescent="0.15">
@@ -2644,7 +2644,7 @@
       <c r="F129" s="9"/>
       <c r="G129" s="9"/>
       <c r="H129" s="11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I129" s="11"/>
       <c r="J129" s="11"/>
@@ -2661,7 +2661,7 @@
       <c r="F130" s="9"/>
       <c r="G130" s="9"/>
       <c r="H130" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I130" s="11"/>
       <c r="J130" s="11"/>
@@ -2678,7 +2678,7 @@
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
       <c r="H131" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I131" s="11"/>
       <c r="J131" s="11"/>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="133" spans="3:17" x14ac:dyDescent="0.15">
       <c r="C133" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E133" s="6"/>
       <c r="F133" s="9"/>
@@ -2724,7 +2724,7 @@
     </row>
     <row r="134" spans="3:17" x14ac:dyDescent="0.15">
       <c r="D134" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E134" s="6"/>
       <c r="F134" s="9"/>
@@ -2801,27 +2801,58 @@
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="L111:M111"/>
-    <mergeCell ref="N111:O111"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="L110:M110"/>
-    <mergeCell ref="N110:O110"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="J108:K108"/>
-    <mergeCell ref="L108:M108"/>
-    <mergeCell ref="N108:O108"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="J107:K107"/>
-    <mergeCell ref="L107:M107"/>
-    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="J99:K99"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P98:Q98"/>
     <mergeCell ref="P107:Q107"/>
     <mergeCell ref="F105:G105"/>
     <mergeCell ref="H102:I102"/>
@@ -2838,58 +2869,27 @@
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="N104:O104"/>
     <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="L101:M101"/>
-    <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="L98:M98"/>
-    <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="J101:K101"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="J99:K99"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="L87:M87"/>
-    <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="L92:M92"/>
-    <mergeCell ref="N92:O92"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="J87:K87"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="J107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
